--- a/chemin vue (Enregistré automatiquement).xlsx
+++ b/chemin vue (Enregistré automatiquement).xlsx
@@ -15,7 +15,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Controller physique</t>
   </si>
@@ -125,13 +124,34 @@
   </si>
   <si>
     <t>view_session_connect.php</t>
+  </si>
+  <si>
+    <t>get_inscription_valider</t>
+  </si>
+  <si>
+    <t>fiche_users</t>
+  </si>
+  <si>
+    <t>get_find_animal</t>
+  </si>
+  <si>
+    <t>inscription_pro</t>
+  </si>
+  <si>
+    <t>get_inscription_pro</t>
+  </si>
+  <si>
+    <t>fiche_pro</t>
+  </si>
+  <si>
+    <t>view_fiche_pro.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +161,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -171,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -187,6 +213,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:F20"/>
+  <dimension ref="A6:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +639,9 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>23</v>
       </c>
@@ -618,51 +650,80 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="6"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chemin vue (Enregistré automatiquement).xlsx
+++ b/chemin vue (Enregistré automatiquement).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Controller physique</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>view_fiche_pro.php</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>Controller_pro.php</t>
+  </si>
+  <si>
+    <t>connexion_professionnel</t>
+  </si>
+  <si>
+    <t>get_recherche_pro</t>
+  </si>
+  <si>
+    <t>view_attente_validation.php</t>
+  </si>
+  <si>
+    <t>attente_validation</t>
   </si>
 </sst>
 </file>
@@ -498,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:F25"/>
+  <dimension ref="A6:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,71 +677,97 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="7"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="F25" s="6"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chemin vue (Enregistré automatiquement).xlsx
+++ b/chemin vue (Enregistré automatiquement).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Controller physique</t>
   </si>
@@ -159,10 +159,22 @@
     <t>get_recherche_pro</t>
   </si>
   <si>
-    <t>view_attente_validation.php</t>
-  </si>
-  <si>
-    <t>attente_validation</t>
+    <t>view_validation_pro</t>
+  </si>
+  <si>
+    <t>view_validation_pro.php</t>
+  </si>
+  <si>
+    <t>view_ajout_employer.php</t>
+  </si>
+  <si>
+    <t>view_session_pro_societe,php</t>
+  </si>
+  <si>
+    <t>session_pro_societe</t>
+  </si>
+  <si>
+    <t>ajout_employer</t>
   </si>
 </sst>
 </file>
@@ -516,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:F29"/>
+  <dimension ref="A6:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +688,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -687,7 +699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -704,7 +716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
@@ -718,7 +730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
         <v>42</v>
       </c>
@@ -726,25 +738,38 @@
         <v>43</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="7"/>
       <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -764,7 +789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="F29" s="6"/>

--- a/chemin vue (Enregistré automatiquement).xlsx
+++ b/chemin vue (Enregistré automatiquement).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vetotoil_mvc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312ECAC4-C95F-4224-9488-E6CD02B564B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Controller physique</t>
   </si>
@@ -175,12 +176,18 @@
   </si>
   <si>
     <t>ajout_employer</t>
+  </si>
+  <si>
+    <t>enregistrement_employer</t>
+  </si>
+  <si>
+    <t>get_enregistrement_employer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,24 +534,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A6:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -582,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -596,7 +603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -610,7 +617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -624,7 +631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -632,7 +639,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -640,7 +647,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -648,7 +655,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -665,7 +672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -679,7 +686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
@@ -688,7 +695,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -699,7 +706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -716,7 +723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
@@ -730,7 +737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
         <v>42</v>
       </c>
@@ -744,7 +751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
       <c r="D24" s="6"/>
       <c r="E24" s="3" t="s">
@@ -754,7 +761,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="D25" s="6"/>
       <c r="E25" s="3" t="s">
@@ -765,34 +772,56 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="F29" s="6"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chemin vue (Enregistré automatiquement).xlsx
+++ b/chemin vue (Enregistré automatiquement).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vetotoil_mvc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312ECAC4-C95F-4224-9488-E6CD02B564B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB238ED9-DB18-4B31-A7EC-797DDF522E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Controller physique</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>get_enregistrement_employer</t>
+  </si>
+  <si>
+    <t>home_pro</t>
+  </si>
+  <si>
+    <t>get_home_pro</t>
+  </si>
+  <si>
+    <t>view_home_pro.php</t>
   </si>
 </sst>
 </file>
@@ -538,7 +547,7 @@
   <dimension ref="A6:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,8 +796,18 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>

--- a/chemin vue (Enregistré automatiquement).xlsx
+++ b/chemin vue (Enregistré automatiquement).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vetotoil_mvc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB238ED9-DB18-4B31-A7EC-797DDF522E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Controller physique</t>
   </si>
@@ -160,9 +159,6 @@
     <t>get_recherche_pro</t>
   </si>
   <si>
-    <t>view_validation_pro</t>
-  </si>
-  <si>
     <t>view_validation_pro.php</t>
   </si>
   <si>
@@ -172,9 +168,6 @@
     <t>view_session_pro_societe,php</t>
   </si>
   <si>
-    <t>session_pro_societe</t>
-  </si>
-  <si>
     <t>ajout_employer</t>
   </si>
   <si>
@@ -184,19 +177,40 @@
     <t>get_enregistrement_employer</t>
   </si>
   <si>
-    <t>home_pro</t>
-  </si>
-  <si>
-    <t>get_home_pro</t>
-  </si>
-  <si>
-    <t>view_home_pro.php</t>
+    <t>view_validation_pro/</t>
+  </si>
+  <si>
+    <t>session_pro_societe/</t>
+  </si>
+  <si>
+    <t>update_societe</t>
+  </si>
+  <si>
+    <t>get_update_societe</t>
+  </si>
+  <si>
+    <t>modifier_pro</t>
+  </si>
+  <si>
+    <t>get_modifier_pro</t>
+  </si>
+  <si>
+    <t>view_modifier_pro.php</t>
+  </si>
+  <si>
+    <t>politique_confidentialite_image</t>
+  </si>
+  <si>
+    <t>view_condition_general_utilisation_image</t>
+  </si>
+  <si>
+    <t>condition_general_utilisation_image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -263,6 +277,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,24 +563,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -598,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -612,7 +632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -626,7 +646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -640,15 +660,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -656,7 +682,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -664,7 +690,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -681,7 +707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -695,7 +721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
@@ -704,7 +730,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -715,7 +741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -732,7 +758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
@@ -746,78 +772,88 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="7" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="3" t="s">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="D26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -837,12 +873,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chemin vue (Enregistré automatiquement).xlsx
+++ b/chemin vue (Enregistré automatiquement).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vetotoil_mvc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5751B2B-D2D7-4AA3-8289-25FC8F34F89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>Controller physique</t>
   </si>
@@ -93,9 +94,6 @@
   </si>
   <si>
     <t>acces_inscription_valider</t>
-  </si>
-  <si>
-    <t>ficheUsers</t>
   </si>
   <si>
     <t>ficheUsers.php</t>
@@ -205,12 +203,30 @@
   </si>
   <si>
     <t>condition_general_utilisation_image</t>
+  </si>
+  <si>
+    <t>view_acces_connexion.php</t>
+  </si>
+  <si>
+    <t>Controller_animal</t>
+  </si>
+  <si>
+    <t>ajouter_animal</t>
+  </si>
+  <si>
+    <t>view_ficheUsers.php</t>
+  </si>
+  <si>
+    <t>enregistrer_animal</t>
+  </si>
+  <si>
+    <t>get_enregistrer_animal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -283,6 +299,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,24 +583,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A6:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -618,7 +638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -632,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -646,7 +666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -660,21 +680,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -682,7 +702,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -690,7 +710,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -704,49 +724,49 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -758,125 +778,150 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="F28" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="F32" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/chemin vue (Enregistré automatiquement).xlsx
+++ b/chemin vue (Enregistré automatiquement).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vetotoil_mvc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5751B2B-D2D7-4AA3-8289-25FC8F34F89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEBADBE-AE3E-46C9-8678-D103F715D747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Controller physique</t>
   </si>
@@ -221,6 +221,21 @@
   </si>
   <si>
     <t>get_enregistrer_animal</t>
+  </si>
+  <si>
+    <t>supprimer_animal</t>
+  </si>
+  <si>
+    <t>get_supprimer_animal</t>
+  </si>
+  <si>
+    <t>Controller_rdv</t>
+  </si>
+  <si>
+    <t>recherche_rdv</t>
+  </si>
+  <si>
+    <t>view_recherche_rdv.php</t>
   </si>
 </sst>
 </file>
@@ -294,15 +309,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:G34"/>
+  <dimension ref="A6:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,10 +808,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -807,8 +822,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3" t="s">
         <v>50</v>
       </c>
@@ -817,8 +832,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="3" t="s">
         <v>46</v>
       </c>
@@ -888,40 +903,83 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="F34" s="6"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/chemin vue (Enregistré automatiquement).xlsx
+++ b/chemin vue (Enregistré automatiquement).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vetotoil_mvc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5751B2B-D2D7-4AA3-8289-25FC8F34F89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>Controller physique</t>
   </si>
@@ -221,12 +220,42 @@
   </si>
   <si>
     <t>get_enregistrer_animal</t>
+  </si>
+  <si>
+    <t>supprimer_animal</t>
+  </si>
+  <si>
+    <t>get_supprimer_animal</t>
+  </si>
+  <si>
+    <t>Controller_rdv</t>
+  </si>
+  <si>
+    <t>recherche_rdv</t>
+  </si>
+  <si>
+    <t>view_recherche_rdv.php</t>
+  </si>
+  <si>
+    <t>gestion_employer</t>
+  </si>
+  <si>
+    <t>view_gestion_employer.php</t>
+  </si>
+  <si>
+    <t>get_recherche_tous_employer</t>
+  </si>
+  <si>
+    <t>supprimer_employer</t>
+  </si>
+  <si>
+    <t>get_supprimer_employer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -294,15 +323,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,24 +615,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -638,7 +670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -652,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -666,7 +698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -680,7 +712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="7" t="s">
@@ -694,7 +726,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -702,7 +734,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -710,7 +742,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -727,7 +759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -741,7 +773,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
@@ -750,7 +782,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -761,7 +793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -778,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
         <v>35</v>
       </c>
@@ -792,11 +824,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="8" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -806,9 +838,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3" t="s">
         <v>50</v>
       </c>
@@ -816,9 +848,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="3" t="s">
         <v>46</v>
       </c>
@@ -827,7 +859,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
         <v>47</v>
       </c>
@@ -841,7 +873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
         <v>53</v>
       </c>
@@ -855,7 +887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
         <v>51</v>
       </c>
@@ -869,62 +901,144 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="3" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="7" t="s">
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B41" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="F34" s="6"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
   </mergeCells>
